--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +451,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9542798571</t>
+          <t>2193060040</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4233586672</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,22 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>4233586672</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
